--- a/테이블.xlsx
+++ b/테이블.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\KDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\KDT-1st-project-minda\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="199">
   <si>
     <t>회원(고객)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -803,6 +803,14 @@
   </si>
   <si>
     <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1268,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U44"/>
+  <dimension ref="A2:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1691,13 +1699,13 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F11" s="4"/>
       <c r="H11" s="4" t="s">
@@ -1715,13 +1723,13 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="4" t="s">
@@ -1736,14 +1744,16 @@
       <c r="K12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="H13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1756,28 +1766,14 @@
       <c r="K13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>4</v>
+      <c r="M13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="H14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1788,31 +1784,27 @@
         <v>173</v>
       </c>
       <c r="K14" s="4"/>
-      <c r="M14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>93</v>
+      <c r="M14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="C15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>21</v>
@@ -1826,31 +1818,23 @@
       <c r="K15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>181</v>
-      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>93</v>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>25</v>
@@ -1864,31 +1848,31 @@
       <c r="K16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>94</v>
+      <c r="M16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>181</v>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>26</v>
@@ -1902,40 +1886,40 @@
       <c r="K17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>94</v>
+      <c r="M17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>94</v>
+      <c r="C18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>94</v>
@@ -1943,13 +1927,13 @@
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>94</v>
@@ -1961,10 +1945,10 @@
         <v>108</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>91</v>
@@ -1975,13 +1959,13 @@
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>94</v>
@@ -1999,22 +1983,30 @@
         <v>4</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P20" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
-        <v>124</v>
+      <c r="C21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>24</v>
@@ -2029,24 +2021,24 @@
         <v>181</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>98</v>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>27</v>
@@ -2058,19 +2050,23 @@
         <v>176</v>
       </c>
       <c r="K22" s="4"/>
+      <c r="M22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>28</v>
@@ -2082,19 +2078,31 @@
         <v>176</v>
       </c>
       <c r="K23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>93</v>
+      <c r="C24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>29</v>
@@ -2108,17 +2116,17 @@
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C25" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>181</v>
+      <c r="C25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>30</v>
@@ -2133,10 +2141,10 @@
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C26" s="9" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>90</v>
@@ -2156,17 +2164,17 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>94</v>
+      <c r="C27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>31</v>
@@ -2181,13 +2189,13 @@
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>94</v>
@@ -2205,10 +2213,10 @@
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C29" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>92</v>
@@ -2229,13 +2237,13 @@
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>94</v>
@@ -2253,13 +2261,13 @@
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>94</v>
@@ -2277,10 +2285,10 @@
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>174</v>
@@ -2301,13 +2309,13 @@
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C33" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>94</v>
@@ -2325,13 +2333,13 @@
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C34" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>94</v>
@@ -2339,13 +2347,13 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>94</v>
@@ -2359,13 +2367,13 @@
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>94</v>
@@ -2385,13 +2393,13 @@
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>94</v>
@@ -2410,6 +2418,18 @@
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="H38" s="9" t="s">
         <v>47</v>
       </c>
@@ -2424,12 +2444,6 @@
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>105</v>
-      </c>
       <c r="H39" s="9" t="s">
         <v>24</v>
       </c>
@@ -2444,17 +2458,11 @@
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>4</v>
+      <c r="C40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>68</v>
@@ -2470,17 +2478,17 @@
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>93</v>
+      <c r="C41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>67</v>
@@ -2496,44 +2504,58 @@
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C43" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E43" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>94</v>
       </c>
     </row>

--- a/테이블.xlsx
+++ b/테이블.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="196">
   <si>
     <t>회원(고객)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사업자번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본키(primary key)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,10 +437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>o_phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -749,10 +741,6 @@
   </si>
   <si>
     <t>외래키 (비식별관계)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1276,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U45"/>
+  <dimension ref="A2:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1308,36 +1296,36 @@
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -1390,201 +1378,201 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="K4" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="P4" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="K5" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="P5" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="T5" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="U5" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>1</v>
@@ -1599,189 +1587,189 @@
         <v>4</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="M9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F10" s="4"/>
       <c r="H10" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="P10" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K14" s="4"/>
       <c r="M14" s="3" t="s">
@@ -1799,24 +1787,24 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C15" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1837,92 +1825,92 @@
         <v>4</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.3">
@@ -1930,45 +1918,45 @@
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>1</v>
@@ -1983,207 +1971,207 @@
         <v>4</v>
       </c>
       <c r="M20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N20" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="13" t="s">
+      <c r="N21" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="P21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>124</v>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K22" s="4"/>
       <c r="M22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>98</v>
+      <c r="C23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="C24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C25" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="I25" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C26" s="9" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H26" s="4" t="s">
+      <c r="F27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="J27" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K27" s="4"/>
     </row>
@@ -2192,22 +2180,22 @@
         <v>59</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K28" s="4"/>
     </row>
@@ -2216,70 +2204,70 @@
         <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K31" s="4"/>
     </row>
@@ -2288,95 +2276,95 @@
         <v>48</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C33" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>114</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C34" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>115</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>1</v>
@@ -2393,142 +2381,142 @@
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C38" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="H41" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" s="9" t="s">
+      <c r="E42" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="H39" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C42" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>93</v>
+      <c r="F42" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>181</v>
+      <c r="E43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.3">
@@ -2539,24 +2527,10 @@
         <v>123</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C45" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/테이블.xlsx
+++ b/테이블.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="202">
   <si>
     <t>회원(고객)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제예정금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예약날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -799,6 +795,34 @@
   </si>
   <si>
     <t>CHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1264,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U44"/>
+  <dimension ref="A2:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1302,30 +1326,30 @@
         <v>0</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P2" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -1384,49 +1408,49 @@
         <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="P4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -1434,49 +1458,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="K5" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>46</v>
       </c>
       <c r="N5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="P5" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>46</v>
       </c>
       <c r="S5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T5" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="U5" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1484,37 +1508,37 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1522,43 +1546,43 @@
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1566,13 +1590,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>1</v>
@@ -1587,28 +1611,28 @@
         <v>4</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="U8" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1616,149 +1640,149 @@
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="M9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F10" s="4"/>
       <c r="H10" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="P10" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="F11" s="4"/>
       <c r="H11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F13" s="4"/>
       <c r="H13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1766,10 +1790,10 @@
         <v>19</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K14" s="4"/>
       <c r="M14" s="3" t="s">
@@ -1792,19 +1816,19 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1828,63 +1852,63 @@
         <v>24</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>38</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.3">
@@ -1892,25 +1916,25 @@
         <v>46</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>39</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.3">
@@ -1918,31 +1942,31 @@
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
@@ -1950,13 +1974,13 @@
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>1</v>
@@ -1974,13 +1998,13 @@
         <v>41</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.3">
@@ -1988,31 +2012,31 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.3">
@@ -2020,26 +2044,26 @@
         <v>44</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K22" s="4"/>
       <c r="M22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P22" s="4"/>
     </row>
@@ -2060,23 +2084,23 @@
         <v>27</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.3">
@@ -2084,46 +2108,46 @@
         <v>45</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C25" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>182</v>
-      </c>
       <c r="E25" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K25" s="4"/>
     </row>
@@ -2132,118 +2156,118 @@
         <v>46</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="F26" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="J26" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C29" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K30" s="4"/>
     </row>
@@ -2252,22 +2276,22 @@
         <v>47</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K31" s="4"/>
     </row>
@@ -2276,46 +2300,46 @@
         <v>48</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K33" s="4"/>
     </row>
@@ -2324,47 +2348,47 @@
         <v>49</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>1</v>
@@ -2381,156 +2405,170 @@
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="H38" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I38" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="K38" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="H39" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J39" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K39" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C40" s="3" t="s">
+      <c r="K40" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C41" s="6" t="s">
+      <c r="H41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C42" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C43" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D43" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C42" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>93</v>
+      <c r="E43" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/테이블.xlsx
+++ b/테이블.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="201">
   <si>
     <t>회원(고객)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,27 +802,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_pay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예약금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙박일수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_nod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL
+예약 대기(결제 전), 예약 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,7 +916,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,6 +958,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,7 +1291,7 @@
   <dimension ref="A2:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2359,13 +2359,13 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>92</v>
@@ -2379,13 +2379,13 @@
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>92</v>
@@ -2403,17 +2403,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:11" ht="27" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F37" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>200</v>
       </c>
       <c r="H37" s="6" t="s">
@@ -2431,7 +2431,7 @@
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C38" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>116</v>
@@ -2440,7 +2440,7 @@
         <v>89</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>46</v>
